--- a/changesMade.xlsx
+++ b/changesMade.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>S.No.</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Shubhank</t>
+  </si>
+  <si>
+    <t>NO CHANGES YET! The code right now only contains the card reading capability</t>
   </si>
 </sst>
 </file>
@@ -189,47 +195,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,269 +562,309 @@
   <dimension ref="A4:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="14" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="17"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="19"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="4"/>
+      <c r="E7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="4">
+        <v>43285</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.46249999999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="4"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="4"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="4"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="4"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="4"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="4"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="4"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="4"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="4"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="4"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
+        <v>12</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="4"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="4"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3">
+        <v>14</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:J6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E7:J7"/>
@@ -816,16 +881,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:J6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="K7"/>

--- a/changesMade.xlsx
+++ b/changesMade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>S.No.</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>NO CHANGES YET! The code right now only contains the card reading capability</t>
+  </si>
+  <si>
+    <t>Added the Keypad module and tested it.</t>
   </si>
 </sst>
 </file>
@@ -201,60 +204,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,63 +588,63 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="18" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="4">
         <v>43285</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="5">
         <v>0.46249999999999997</v>
       </c>
     </row>
@@ -650,30 +653,38 @@
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="4">
+        <v>43287</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.61249999999999993</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
     </row>
@@ -682,14 +693,14 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
     </row>
@@ -698,14 +709,14 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
     </row>
@@ -714,14 +725,14 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
     </row>
@@ -730,14 +741,14 @@
       <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
     </row>
@@ -746,14 +757,14 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
     </row>
@@ -762,14 +773,14 @@
       <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
     </row>
@@ -778,14 +789,14 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
     </row>
@@ -794,14 +805,14 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
     </row>
@@ -810,14 +821,14 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
     </row>
@@ -826,14 +837,14 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="3"/>
       <c r="L19" s="2"/>
     </row>
@@ -842,29 +853,26 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
       <c r="K20" s="3"/>
       <c r="L20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:J6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E7:J7"/>
@@ -881,13 +889,16 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:J6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="K7"/>

--- a/changesMade.xlsx
+++ b/changesMade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>S.No.</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Added the Keypad module and tested it.</t>
+  </si>
+  <si>
+    <t>Passcode verification functionality.</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A4:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,16 +680,24 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="4">
+        <v>43287</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.70138888888888884</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>

--- a/changesMade.xlsx
+++ b/changesMade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>S.No.</t>
   </si>
@@ -37,10 +37,13 @@
     <t>NO CHANGES YET! The code right now only contains the card reading capability</t>
   </si>
   <si>
-    <t>Added the Keypad module and tested it.</t>
+    <t>Passcode verification functionality.</t>
   </si>
   <si>
-    <t>Passcode verification functionality.</t>
+    <t>Added the Keypad module and tested it.(removed RFID)</t>
+  </si>
+  <si>
+    <t>Added RFID. Only reads the rfid and prints UID</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <dimension ref="A4:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +664,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -685,7 +688,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -704,16 +707,24 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="4">
+        <v>43287</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.74375000000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>

--- a/changesMade.xlsx
+++ b/changesMade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>S.No.</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Added RFID. Only reads the rfid and prints UID</t>
+  </si>
+  <si>
+    <t>Added verification. Only valid ID(s) will be granted access.</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <dimension ref="A4:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,16 +734,24 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="23"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="4">
+        <v>43287</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.93819444444444444</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>

--- a/changesMade.xlsx
+++ b/changesMade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>S.No.</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Added verification. Only valid ID(s) will be granted access.</t>
+  </si>
+  <si>
+    <t>Added Servo lib. And the functionality to unlock door when valid ID is scanned.</t>
   </si>
 </sst>
 </file>
@@ -207,13 +210,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,8 +244,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -256,17 +254,26 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +581,7 @@
   <dimension ref="A4:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E10" sqref="E10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,305 +604,313 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="14" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="3">
+      <c r="B7" s="20">
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="4">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="18">
         <v>43285</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="19">
         <v>0.46249999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="3">
+      <c r="B8" s="20">
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="4">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="18">
         <v>43287</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="19">
         <v>0.61249999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="3">
+      <c r="B9" s="20">
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="4">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="18">
         <v>43287</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="19">
         <v>0.70138888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="3">
+      <c r="B10" s="20">
         <v>4</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="4">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="18">
         <v>43287</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="19">
         <v>0.74375000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="3">
+      <c r="B11" s="20">
         <v>5</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="4">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="18">
         <v>43287</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="19">
         <v>0.93819444444444444</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="3">
+      <c r="B12" s="20">
         <v>6</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
+      <c r="E12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="18">
+        <v>43287</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0.95138888888888884</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="3">
+      <c r="B13" s="20">
         <v>7</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="3">
+      <c r="B14" s="20">
         <v>8</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="3">
+      <c r="B15" s="20">
         <v>9</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="3">
+      <c r="B16" s="20">
         <v>10</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="2"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="3">
+      <c r="B17" s="20">
         <v>11</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="2"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="3">
+      <c r="B18" s="20">
         <v>12</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="2"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="3">
+      <c r="B19" s="20">
         <v>13</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="2"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="3">
+      <c r="B20" s="20">
         <v>14</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="2"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="33">
